--- a/posesiones/1485983.xlsx
+++ b/posesiones/1485983.xlsx
@@ -1838,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>22</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
         <v>22</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2423,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>6</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>25</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R20">
         <v>32</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
         <v>15</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R27">
         <v>21</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>9</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31">
         <v>14</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>18</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3414,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <v>11</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>17</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3764,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R42">
         <v>14</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>15</v>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>16</v>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R47">
         <v>12</v>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>15</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>17</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>29</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58">
         <v>8</v>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>20</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R61">
         <v>13</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4835,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>21</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R65">
         <v>5</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5135,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>39</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R72">
         <v>16</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R74">
         <v>19</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R76">
         <v>11</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5967,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>20</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>20</v>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6643,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>28</v>
@@ -6687,10 +6687,10 @@
         <v>1</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6825,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6972,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R107">
         <v>28</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7072,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R109">
         <v>11</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7266,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -7316,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7457,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7739,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R123">
         <v>24</v>
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R124">
         <v>16</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>15</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R127">
         <v>14</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R129">
         <v>18</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8195,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8245,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R133">
         <v>24</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R135">
         <v>15</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8442,7 +8442,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R142">
         <v>25</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8824,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R145">
         <v>20</v>
@@ -8877,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8927,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R147">
         <v>13</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9027,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>10</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R151">
         <v>12</v>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R153">
         <v>22</v>
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9330,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R155">
         <v>15</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9430,7 +9430,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R157">
         <v>14</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>12</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>17</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9874,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>21</v>
@@ -9924,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R168">
         <v>20</v>
@@ -10024,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10309,7 +10309,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>6</v>
@@ -10362,7 +10362,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R176">
         <v>6</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R179">
         <v>10</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10750,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R184">
         <v>22</v>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10853,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R186">
         <v>17</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10956,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R188">
         <v>18</v>
@@ -11006,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11106,7 +11106,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R191">
         <v>10</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R193">
         <v>7</v>
@@ -11256,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11538,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R200">
         <v>18</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11641,7 +11641,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>8</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R208">
         <v>13</v>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R209">
         <v>22</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R213">
         <v>24</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R217">
         <v>8</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12479,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R227">
         <v>15</v>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>12</v>
@@ -13049,10 +13049,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13281,10 +13281,10 @@
         <v>1</v>
       </c>
       <c r="P236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13334,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R237">
         <v>16</v>
@@ -13387,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R238">
         <v>16</v>
@@ -13437,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13531,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>0</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13828,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13878,7 +13878,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R248">
         <v>21</v>
@@ -13928,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13978,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R250">
         <v>11</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14081,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R252">
         <v>8</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14181,7 +14181,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R254">
         <v>11</v>
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14331,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R258">
         <v>12</v>
@@ -14434,7 +14434,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14484,7 +14484,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R260">
         <v>4</v>
@@ -14534,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14584,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R262">
         <v>11</v>
@@ -14634,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14684,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14731,7 +14731,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14875,7 +14875,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R268">
         <v>24</v>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14978,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R270">
         <v>16</v>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15078,7 +15078,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R272">
         <v>19</v>
@@ -15131,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15181,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R274">
         <v>5</v>
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15328,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R277">
         <v>15</v>
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R278">
         <v>15</v>
@@ -15434,7 +15434,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R279">
         <v>13</v>
@@ -15487,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R280">
         <v>10</v>
@@ -15537,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15728,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R285">
         <v>1</v>
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R287">
         <v>12</v>
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16016,7 +16016,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16063,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16113,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R293">
         <v>14</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16260,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R296">
         <v>0</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16501,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16551,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R302">
         <v>17</v>
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16651,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16701,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16751,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R306">
         <v>18</v>
@@ -16801,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16851,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R310">
         <v>9</v>
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R311">
         <v>0</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R312">
         <v>8</v>
@@ -17101,7 +17101,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17195,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17245,7 +17245,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R316">
         <v>27</v>
@@ -17298,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17348,7 +17348,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R318">
         <v>13</v>
@@ -17398,7 +17398,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17633,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17683,7 +17683,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R325">
         <v>6</v>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17783,7 +17783,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R327">
         <v>12</v>
@@ -17833,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17883,7 +17883,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R329">
         <v>13</v>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R331">
         <v>8</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18224,7 +18224,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R336">
         <v>25</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R338">
         <v>23</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18421,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18515,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18562,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18656,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18706,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R346">
         <v>26</v>
@@ -18756,7 +18756,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18806,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R348">
         <v>0</v>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19000,7 +19000,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R352">
         <v>26</v>
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19150,7 +19150,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R355">
         <v>20</v>
@@ -19203,7 +19203,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R356">
         <v>16</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19353,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R359">
         <v>7</v>
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19503,7 +19503,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R362">
         <v>5</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19600,7 +19600,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19647,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19741,7 +19741,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19838,7 +19838,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R369">
         <v>0</v>
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20076,7 +20076,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20123,7 +20123,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20220,7 +20220,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R377">
         <v>15</v>
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20602,7 +20602,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R385">
         <v>16</v>
@@ -20652,7 +20652,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20699,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20746,7 +20746,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20846,7 +20846,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R390">
         <v>17</v>
@@ -20890,10 +20890,10 @@
         <v>1</v>
       </c>
       <c r="P391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20940,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20987,7 +20987,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21034,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21128,7 +21128,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21175,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21222,7 +21222,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21310,10 +21310,10 @@
         <v>1</v>
       </c>
       <c r="P400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q400">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21363,7 +21363,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R401">
         <v>1</v>
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21460,7 +21460,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21507,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21557,7 +21557,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R405">
         <v>24</v>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21657,7 +21657,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21704,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21754,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R409">
         <v>21</v>
@@ -21807,7 +21807,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21857,7 +21857,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R411">
         <v>16</v>
@@ -21910,7 +21910,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R412">
         <v>16</v>
@@ -21963,7 +21963,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22013,7 +22013,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R414">
         <v>20</v>
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22113,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R416">
         <v>13</v>
@@ -22163,7 +22163,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22210,7 +22210,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22260,7 +22260,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R419">
         <v>27</v>
@@ -22310,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22354,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22401,7 +22401,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22495,7 +22495,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22542,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22639,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R427">
         <v>16</v>
@@ -22692,7 +22692,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R428">
         <v>22</v>
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22842,7 +22842,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R431">
         <v>29</v>
@@ -22895,7 +22895,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22945,7 +22945,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R433">
         <v>20</v>
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23045,7 +23045,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23142,7 +23142,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R437">
         <v>16</v>
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23242,7 +23242,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R439">
         <v>14</v>
@@ -23292,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23527,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23577,7 +23577,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R446">
         <v>16</v>
@@ -23630,7 +23630,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R447">
         <v>14</v>
@@ -23683,7 +23683,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R448">
         <v>13</v>
@@ -23733,7 +23733,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23830,7 +23830,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -23883,7 +23883,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R452">
         <v>11</v>
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23983,7 +23983,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R454">
         <v>12</v>
@@ -24036,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24086,7 +24086,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R456">
         <v>21</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24230,7 +24230,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R459">
         <v>10</v>
@@ -24283,7 +24283,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R460">
         <v>18</v>
@@ -24336,7 +24336,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R461">
         <v>12</v>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24439,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R463">
         <v>18</v>
@@ -24489,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24633,7 +24633,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R467">
         <v>13</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24927,7 +24927,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R473">
         <v>35</v>
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25024,7 +25024,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>2</v>
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25124,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R477">
         <v>18</v>
@@ -25177,7 +25177,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R478">
         <v>18</v>
@@ -25227,7 +25227,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25277,7 +25277,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R480">
         <v>15</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25377,7 +25377,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R482">
         <v>5</v>
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25474,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25568,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25662,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25756,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25900,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R494">
         <v>29</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26050,7 +26050,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R496">
         <v>12</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26147,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26194,7 +26194,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26429,7 +26429,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26476,7 +26476,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26523,7 +26523,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26573,7 +26573,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R507">
         <v>14</v>
@@ -26623,7 +26623,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26670,7 +26670,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26717,7 +26717,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26764,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26814,7 +26814,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R512">
         <v>9</v>
@@ -26870,7 +26870,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R513">
         <v>3</v>
@@ -26914,10 +26914,10 @@
         <v>1</v>
       </c>
       <c r="P514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q514">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
